--- a/1st_round_screening/ACE/iteration_1/data/transfer_1.xlsx
+++ b/1st_round_screening/ACE/iteration_1/data/transfer_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,16 +541,6 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity_STD</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
           <t>Solvent</t>
         </is>
       </c>
@@ -560,7 +550,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>47.25</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -569,37 +559,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>32.55</v>
+        <v>64.05</v>
       </c>
       <c r="H2" t="n">
-        <v>78.75</v>
+        <v>98.7</v>
       </c>
       <c r="I2" t="n">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>78.75</v>
+        <v>66.5</v>
       </c>
       <c r="K2" t="n">
-        <v>78.75</v>
+        <v>27.65</v>
       </c>
       <c r="L2" t="n">
-        <v>741</v>
+        <v>516</v>
       </c>
       <c r="M2" t="n">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c r="N2" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -607,10 +597,8 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
-        <v>-0.35</v>
+      <c r="V2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -618,46 +606,46 @@
         <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>85.05</v>
+        <v>134.4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>65.45</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10.15</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>51.8</v>
+        <v>91</v>
       </c>
       <c r="H3" t="n">
-        <v>88.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.3</v>
+        <v>124.6</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>333</v>
+        <v>477</v>
       </c>
       <c r="M3" t="n">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>484</v>
+        <v>253</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -665,10 +653,8 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="n">
-        <v>-0.35</v>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -676,46 +662,46 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>65.45</v>
+        <v>72.45</v>
       </c>
       <c r="C4" t="n">
-        <v>40.95</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="E4" t="n">
-        <v>6.65</v>
+        <v>11.2</v>
       </c>
       <c r="F4" t="n">
-        <v>11.2</v>
+        <v>19.95</v>
       </c>
       <c r="G4" t="n">
-        <v>41.65</v>
+        <v>40.6</v>
       </c>
       <c r="H4" t="n">
-        <v>65.45</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>65.45</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>53.9</v>
+        <v>37.1</v>
       </c>
       <c r="L4" t="n">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>124</v>
+        <v>1000</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -723,10 +709,8 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
-        <v>-0.7</v>
+      <c r="V4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -734,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>124.6</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -746,34 +730,34 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>95.2</v>
       </c>
       <c r="H5" t="n">
-        <v>86.09999999999999</v>
+        <v>130.2</v>
       </c>
       <c r="I5" t="n">
-        <v>86.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>86.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>86.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>400</v>
+        <v>546</v>
       </c>
       <c r="M5" t="n">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="N5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -781,10 +765,8 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="n">
-        <v>0.7</v>
+      <c r="V5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -792,25 +774,25 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>84.7</v>
+        <v>143.5</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>84.7</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>84.7</v>
+        <v>113.4</v>
       </c>
       <c r="H6" t="n">
-        <v>75.95</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -822,16 +804,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="M6" t="n">
-        <v>434</v>
+        <v>697</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -839,10 +821,8 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>-0.35</v>
+      <c r="V6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -850,28 +830,28 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>48.65</v>
+        <v>245</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>78.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>46.9</v>
+        <v>105</v>
       </c>
       <c r="H7" t="n">
-        <v>78.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>78.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -880,16 +860,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -897,10 +877,8 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="n">
-        <v>0.35</v>
+      <c r="V7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -908,46 +886,46 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>43.4</v>
+        <v>35.35</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>112.35</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>78.75</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>103.6</v>
+        <v>110.25</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>126.7</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -955,9 +933,7 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="n">
+      <c r="V8" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -966,7 +942,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="n">
-        <v>83.65000000000001</v>
+        <v>147.7</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -975,34 +951,34 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>10.15</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>83.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>74.2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>83.65000000000001</v>
+        <v>202.3</v>
       </c>
       <c r="L9" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1013,9 +989,7 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
+      <c r="V9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1024,31 +998,31 @@
         <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>73.15000000000001</v>
+        <v>122.5</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>73.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>11.55</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>11.55</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>44.45</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>73.15000000000001</v>
+        <v>227.5</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>63.35</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1057,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1071,10 +1045,8 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="n">
-        <v>-0.35</v>
+      <c r="V10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1082,25 +1054,25 @@
         <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>84.7</v>
+        <v>208.25</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>24.85</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.35</v>
+        <v>16.8</v>
       </c>
       <c r="F11" t="n">
-        <v>16.45</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>112.35</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>78.40000000000001</v>
+        <v>124.95</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1109,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>319</v>
+        <v>540</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>323</v>
+        <v>460</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1129,9 +1101,7 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="n">
+      <c r="V11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1140,57 +1110,47 @@
         <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>50.4</v>
+        <v>100.45</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>108.85</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4.55</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>57.05</v>
+        <v>46.2</v>
       </c>
       <c r="H12" t="n">
-        <v>108.85</v>
+        <v>81.55</v>
       </c>
       <c r="I12" t="n">
-        <v>16.45</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>100.45</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" t="n">
-        <v>511</v>
-      </c>
-      <c r="M12" t="n">
-        <v>81</v>
-      </c>
-      <c r="N12" t="n">
-        <v>191</v>
-      </c>
-      <c r="O12" t="n">
-        <v>217</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="n">
-        <v>0</v>
+      <c r="V12" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="13">
@@ -1198,37 +1158,37 @@
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>40.95</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11.55</v>
+        <v>29.75</v>
       </c>
       <c r="G13" t="n">
-        <v>43.4</v>
+        <v>63.7</v>
       </c>
       <c r="H13" t="n">
-        <v>50.4</v>
+        <v>99.75</v>
       </c>
       <c r="I13" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.4</v>
+        <v>58.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>62.65</v>
       </c>
       <c r="L13" t="n">
-        <v>500</v>
+        <v>777</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1237,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>500</v>
+        <v>223</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1245,10 +1205,8 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="n">
-        <v>0.7</v>
+      <c r="V13" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="14">
@@ -1256,7 +1214,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="n">
-        <v>74.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1265,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>20.3</v>
+        <v>23.1</v>
       </c>
       <c r="G14" t="n">
-        <v>31.15</v>
+        <v>35.35</v>
       </c>
       <c r="H14" t="n">
-        <v>93.09999999999999</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>93.09999999999999</v>
+        <v>105</v>
       </c>
       <c r="L14" t="n">
-        <v>913</v>
+        <v>1000</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1295,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1303,10 +1261,8 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="n">
-        <v>-0.35</v>
+      <c r="V14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1314,46 +1270,46 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>113.4</v>
+        <v>91.7</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>67.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>17.15</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>113.4</v>
+        <v>112.35</v>
       </c>
       <c r="H15" t="n">
-        <v>38.15</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>145.95</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="M15" t="n">
-        <v>352</v>
+        <v>510</v>
       </c>
       <c r="N15" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1361,9 +1317,7 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
+      <c r="V15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1372,25 +1326,25 @@
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>57.75</v>
+        <v>171.5</v>
       </c>
       <c r="C16" t="n">
-        <v>57.75</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>57.75</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>26.25</v>
+        <v>34.3</v>
       </c>
       <c r="F16" t="n">
-        <v>34.65</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.75</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.75</v>
+        <v>144.2</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1405,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1419,10 +1373,8 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="n">
-        <v>0.35</v>
+      <c r="V16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1430,7 +1382,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="n">
-        <v>15.05</v>
+        <v>220.85</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1439,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>39.2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>32.2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>53.2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>92.05</v>
+        <v>129.15</v>
       </c>
       <c r="K17" t="n">
-        <v>92.05</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>972</v>
+        <v>422</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="N17" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -1477,10 +1429,8 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="n">
-        <v>0.35</v>
+      <c r="V17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/1st_round_screening/ACE/iteration_1/data/transfer_1.xlsx
+++ b/1st_round_screening/ACE/iteration_1/data/transfer_1.xlsx
@@ -550,43 +550,43 @@
         <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>42.7</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>49.7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>64.05</v>
+        <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>80.15000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="I2" t="n">
-        <v>59.85</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.5</v>
+        <v>10.85</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>285</v>
+        <v>603</v>
       </c>
       <c r="M2" t="n">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>177</v>
+        <v>397</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -606,13 +606,13 @@
         <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>51.45</v>
+        <v>121.45</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>83.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -621,13 +621,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66.84999999999999</v>
+        <v>135.1</v>
       </c>
       <c r="H3" t="n">
-        <v>81.2</v>
+        <v>93.45</v>
       </c>
       <c r="I3" t="n">
-        <v>66.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>366</v>
+        <v>242</v>
       </c>
       <c r="M3" t="n">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -662,28 +662,28 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>98.7</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>59.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>85.75</v>
       </c>
       <c r="G4" t="n">
-        <v>65.45</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>63</v>
+        <v>106.05</v>
       </c>
       <c r="I4" t="n">
-        <v>70.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>763</v>
       </c>
       <c r="M4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -718,28 +718,28 @@
         <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>49.35</v>
+        <v>85.75</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>49.35</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>43.05</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>54.95</v>
       </c>
       <c r="G5" t="n">
-        <v>82.95</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>115.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>53.2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -766,7 +766,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -774,28 +774,28 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>71.75</v>
+        <v>113.4</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>98.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>54.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>65.8</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>62.3</v>
+        <v>112.35</v>
       </c>
       <c r="I6" t="n">
-        <v>51.45</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -830,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>74.2</v>
+        <v>99.75</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -839,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>93.8</v>
       </c>
       <c r="G7" t="n">
-        <v>81.55</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>93.45</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>100.8</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -886,46 +886,46 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>36.75</v>
+        <v>95.55</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>54.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>59.15</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>80.84999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="I8" t="n">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.75</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -942,46 +942,46 @@
         <v>23</v>
       </c>
       <c r="B9" t="n">
-        <v>32.2</v>
+        <v>97.65000000000001</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>59.15</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>65.45</v>
       </c>
       <c r="F9" t="n">
-        <v>42.35</v>
+        <v>87.5</v>
       </c>
       <c r="G9" t="n">
-        <v>34.3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>32.9</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>37.45</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>65.8</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>672</v>
+        <v>1000</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -990,7 +990,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -998,7 +998,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>15.4</v>
+        <v>98</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1007,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>67.55</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>86.8</v>
       </c>
       <c r="G10" t="n">
-        <v>101.15</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>108.85</v>
+        <v>98</v>
       </c>
       <c r="I10" t="n">
-        <v>124.6</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1000</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1046,7 +1046,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="11">
@@ -1054,25 +1054,25 @@
         <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>108.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>50.75</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>67.55</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>69.3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>121.45</v>
+        <v>100.45</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1084,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1110,28 +1110,28 @@
         <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>73.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>86.8</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>92.05</v>
       </c>
       <c r="G12" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>52.85</v>
+        <v>92.05</v>
       </c>
       <c r="I12" t="n">
-        <v>89.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1140,16 +1140,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1158,7 +1158,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1166,25 +1166,25 @@
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>121.8</v>
+        <v>120.05</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.8</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>51.1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.65</v>
       </c>
       <c r="G13" t="n">
-        <v>57.4</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>48.65</v>
+        <v>116.2</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1199,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1214,7 +1214,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1222,25 +1222,25 @@
         <v>28</v>
       </c>
       <c r="B14" t="n">
-        <v>75.95</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>88.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5</v>
+        <v>97.65000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1255,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1000</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1270,7 +1270,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1278,7 +1278,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>103.95</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1287,16 +1287,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>79.8</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>166.25</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1000</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1334,25 +1334,25 @@
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>1.4</v>
+        <v>95.55</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>156.1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>73.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.65</v>
+        <v>98.7</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1000</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1382,7 +1382,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1390,7 +1390,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="n">
-        <v>96.25</v>
+        <v>101.85</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1399,16 +1399,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="G17" t="n">
-        <v>89.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>164.15</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -1438,7 +1438,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
